--- a/lab_first_year/second_semester/coriolis/Coriolis.xlsx
+++ b/lab_first_year/second_semester/coriolis/Coriolis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\physics_python_tools\lab_first_year\second_semester\coriolis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840AF6E2-50F8-49A9-A267-133AFFD5D5FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57CDB83-D6E5-4507-A027-FBB5B1A96154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Measurements</t>
   </si>
@@ -137,16 +137,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>r_ball[cm]</t>
+  </si>
+  <si>
+    <t>dr_ball[cm]</t>
+  </si>
+  <si>
     <t>h[cm]</t>
   </si>
   <si>
     <t>dh[cm]</t>
-  </si>
-  <si>
-    <t>r_ball[mm]</t>
-  </si>
-  <si>
-    <t>dr_ball[mm]</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -473,7 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6948,7 +6947,7 @@
   <dimension ref="A1:AQ86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6980,10 +6979,10 @@
         <v>2.7181666666666668</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7000,12 +6999,12 @@
       </c>
       <c r="F2"/>
       <c r="G2" s="1">
-        <f>0.1269/2</f>
-        <v>6.3450000000000006E-2</v>
+        <f>1.269/2</f>
+        <v>0.63449999999999995</v>
       </c>
       <c r="H2" s="1">
-        <f>1/SQRT(12)</f>
-        <v>0.28867513459481292</v>
+        <f>1/SQRT(12)/10</f>
+        <v>2.8867513459481291E-2</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>22</v>
@@ -7025,10 +7024,10 @@
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1">
         <v>2711</v>
@@ -7059,9 +7058,9 @@
       <c r="F4" s="4"/>
       <c r="G4" s="1">
         <f>5.8-G2</f>
-        <v>5.7365499999999994</v>
-      </c>
-      <c r="H4" s="42">
+        <v>5.1654999999999998</v>
+      </c>
+      <c r="H4" s="1">
         <f>1/SQRT(12)</f>
         <v>0.28867513459481292</v>
       </c>
